--- a/UoF_TimeTableH22.xlsx
+++ b/UoF_TimeTableH22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0000000021/Developer/H22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9349AE-8503-624E-95F7-6D05F67D5BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9568456C-C243-984D-9D89-BB263F6F189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +107,14 @@
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -259,7 +267,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -277,8 +285,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -316,8 +325,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -334,6 +346,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,10 +379,10 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>199571</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2444750"/>
+    <xdr:ext cx="2863397" cy="2394857"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="ZoneTexte 2">
@@ -383,8 +396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1082675" y="4857750"/>
-          <a:ext cx="2870200" cy="2444750"/>
+          <a:off x="1091746" y="4717142"/>
+          <a:ext cx="2863397" cy="2394857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -423,6 +436,23 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -440,8 +470,228 @@
                 </a:extLst>
               </a:hlinkClick>
             </a:rPr>
-            <a:t>ECN1003-A21-01 - Introduction aux technologies numériques</a:t>
+            <a:t>ECN1002-A21-01 - </a:t>
           </a:r>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Théories de la culture</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AG1 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ZAHAR, H. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Présentiel</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1800" u="sng"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="fr-FR" sz="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2335,7 +2585,7 @@
       <c r="B34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2560,12 +2810,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -2573,6 +2817,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/UoF_TimeTableH22.xlsx
+++ b/UoF_TimeTableH22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0000000021/Developer/H22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9568456C-C243-984D-9D89-BB263F6F189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F387D5-CE62-6242-A755-CE56404583E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H22" sheetId="1" r:id="rId1"/>
@@ -316,6 +316,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -324,9 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="17" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -382,7 +382,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>199571</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2863397" cy="2394857"/>
+    <xdr:ext cx="1375683" cy="2394857"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="ZoneTexte 2">
@@ -397,7 +397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1091746" y="4717142"/>
-          <a:ext cx="2863397" cy="2394857"/>
+          <a:ext cx="1375683" cy="2394857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -454,6 +454,37 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-CA" sz="1800" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Théories de la culture</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -470,7 +501,7 @@
                 </a:extLst>
               </a:hlinkClick>
             </a:rPr>
-            <a:t>ECN1002-A21-01 - </a:t>
+            <a:t>ECN1002-H22-01</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -501,7 +532,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-CA" sz="1800" u="sng">
+            <a:rPr lang="en-CA" sz="1800" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -510,7 +541,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Théories de la culture</a:t>
+            <a:t>AG1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -531,69 +562,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1800" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>AG1 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1800" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ZAHAR, H. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-CA" sz="1800" u="sng">
+          <a:endParaRPr lang="en-CA" sz="1800" u="none">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -604,34 +573,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-CA" sz="1800" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -649,36 +590,8 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-CA" sz="1800" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1800" u="sng">
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -689,205 +602,10 @@
             </a:rPr>
             <a:t>Présentiel</a:t>
           </a:r>
-          <a:endParaRPr lang="en-CA" sz="1800" u="sng"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2875493</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2855382" cy="2508249"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="ZoneTexte 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6844243" y="1111250"/>
-          <a:ext cx="2855382" cy="2508249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
-                <a:extLst>
-                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
-                  </a:ext>
-                </a:extLst>
-              </a:hlinkClick>
-            </a:rPr>
-            <a:t>EEU1003-A21-01 - Histoire des villes et de l’urbanisation</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en-CA" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="fr-FR" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1571626</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>37042</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1333500" cy="2598207"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="ZoneTexte 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11318876" y="8609542"/>
-          <a:ext cx="1333500" cy="2598207"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
-                <a:extLst>
-                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
-                  </a:ext>
-                </a:extLst>
-              </a:hlinkClick>
-            </a:rPr>
-            <a:t>UOF1001-A21-01 - Introduction à la transdisciplinarité</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1600">
+          <a:endParaRPr lang="en-CA" sz="1800" u="none"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1200" u="none">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -958,6 +676,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -967,16 +686,74 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
-                <a:extLst>
-                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
-                  </a:ext>
-                </a:extLst>
-              </a:hlinkClick>
-            </a:rPr>
-            <a:t>ECN1001-A21-01 - Introduction aux cultures numériques</a:t>
-          </a:r>
+            </a:rPr>
+            <a:t>Arts numériques</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ECN1004-H22-01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AG2 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -988,6 +765,122 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Présentiel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:br>
             <a:rPr lang="en-CA">
               <a:solidFill>
@@ -1009,11 +902,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2886075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>175682</xdr:rowOff>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>193827</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2860675" cy="2491317"/>
+    <xdr:ext cx="1523999" cy="2455032"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="ZoneTexte 12">
@@ -1027,8 +920,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3965575" y="1525057"/>
-          <a:ext cx="2860675" cy="2491317"/>
+          <a:off x="2485571" y="4711398"/>
+          <a:ext cx="1523999" cy="2455032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1064,6 +957,22 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Éléments de microéconomie</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-CA" sz="1800"/>
+          </a:br>
           <a:r>
             <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1081,8 +990,38 @@
                 </a:extLst>
               </a:hlinkClick>
             </a:rPr>
-            <a:t>EIS1001-A21-01 - Éléments d’économie globale</a:t>
-          </a:r>
+            <a:t>EIS1005-H22-0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AG2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -1094,10 +1033,44 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en-CA" sz="1800"/>
-          </a:br>
-          <a:endParaRPr lang="fr-FR" sz="1800"/>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Présentiel</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1800" u="none"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1105,12 +1078,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>37042</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1614713</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2820458" cy="2492375"/>
+    <xdr:ext cx="1260171" cy="2492375"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="ZoneTexte 14">
@@ -1124,7 +1097,1808 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9784292" y="4826000"/>
+          <a:off x="5587999" y="4692196"/>
+          <a:ext cx="1260171" cy="2492375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Morphologie urbaine </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EEU1005-H22-01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SalleA </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Présentiel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:br>
+            <a:rPr lang="en-CA" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="fr-CA" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60776</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32504</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1535795" cy="2471209"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="ZoneTexte 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C19E0E-477A-EB4C-950F-2981DC17521F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4034062" y="4749647"/>
+          <a:ext cx="1535795" cy="2471209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:rPr>
+            <a:t>Identités et trajectoires individuelles</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:rPr>
+            <a:t>EPH1002-H22-01</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AGA2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Présentiel</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586770</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82854</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="2461682"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3138D8E5-5601-5645-9676-B5E429FC6F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16098913" y="1806425"/>
+          <a:ext cx="2870200" cy="2461682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Littératie scientifique</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+              <a:extLst>
+                <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                  <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                </a:ext>
+              </a:extLst>
+            </a:hlinkClick>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:rPr>
+            <a:t>UOF1001-A21-02</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2878667</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2571</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2872619" cy="2446715"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="ZoneTexte 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937FF3B1-89B5-A94A-8C98-DC1419113A00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9736667" y="8711142"/>
+          <a:ext cx="2872619" cy="2446715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Développement de l’enfant et transitions vécues </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:rPr>
+            <a:t>EDU1102-H22-01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+              <a:extLst>
+                <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                  <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                </a:ext>
+              </a:extLst>
+            </a:hlinkClick>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+              <a:extLst>
+                <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                  <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                </a:ext>
+              </a:extLst>
+            </a:hlinkClick>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+              <a:extLst>
+                <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                  <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                </a:ext>
+              </a:extLst>
+            </a:hlinkClick>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+              <a:extLst>
+                <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                  <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                </a:ext>
+              </a:extLst>
+            </a:hlinkClick>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+              <a:extLst>
+                <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                  <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                </a:ext>
+              </a:extLst>
+            </a:hlinkClick>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>à distance</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+              <a:extLst>
+                <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                  <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                </a:ext>
+              </a:extLst>
+            </a:hlinkClick>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24948</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>192618</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2841624" cy="2401810"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="ZoneTexte 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC97712-4B4E-1B45-A385-7C1B7D23C79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6882948" y="1517047"/>
+          <a:ext cx="2841624" cy="2401810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Économies du Canada</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:rPr>
+            <a:t>EIS1002-H22-02</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> AG2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Présentiel</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1378858</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>183546</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1469571" cy="2461682"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="ZoneTexte 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC955090-F124-8341-956D-7082976351F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2467429" y="8692546"/>
+          <a:ext cx="1469571" cy="2461682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Planification de l’apprentissage et évaluation : Math</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-CA" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:rPr>
+            <a:t>EDU1002-H22-01 </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>199570</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2830286" cy="2394858"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="ZoneTexte 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F4441D-2FBE-0941-A933-3B3051D41D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="1523999"/>
+          <a:ext cx="2830286" cy="2394858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mondialisation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:rPr>
+            <a:t>EIS.PH1004-H22-01</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AG2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Présentiel</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31903</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18899</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="2439457"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="ZoneTexte 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C0DFC6-6B9F-344F-A583-C777FADB60FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9774617" y="4736042"/>
+          <a:ext cx="2870200" cy="2439457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cognition à l’ère numérique</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ECN1005-H22-01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AG2 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Présentiel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:br>
+            <a:rPr lang="en-CA" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="fr-CA" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>452</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2820458" cy="2492375"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="ZoneTexte 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01ECF630-088A-6D4D-8E54-DC5AFE35836C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6883399" y="8309881"/>
           <a:ext cx="2820458" cy="2492375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1164,6 +2938,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1173,16 +2948,71 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
-                <a:extLst>
-                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
-                  </a:ext>
-                </a:extLst>
-              </a:hlinkClick>
-            </a:rPr>
-            <a:t>EEU1001-A21-01 - Dynamiques urbaines</a:t>
-          </a:r>
+            </a:rPr>
+            <a:t>Cadre bâti en environnements urbains </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EEU1004-H22-01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AGA2 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -1194,17 +3024,331 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Présentiel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:br>
-            <a:rPr lang="en-CA">
+            <a:rPr lang="en-CA" sz="1800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
           </a:br>
-          <a:endParaRPr lang="fr-FR" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
+          <a:endParaRPr lang="fr-CA" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7710</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1418773" cy="2477862"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="ZoneTexte 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29D53D3-864A-7545-93FD-8B198C76A412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1121227" y="8317139"/>
+          <a:ext cx="1418773" cy="2477862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Biodiversité urbaine </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EEU1002-H22-01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SalleA </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Présentiel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:br>
+            <a:rPr lang="en-CA" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="fr-CA" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1214,17 +3358,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>195791</xdr:rowOff>
+      <xdr:colOff>31748</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166761</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2471209"/>
+    <xdr:ext cx="2889252" cy="2482096"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="ZoneTexte 12">
+        <xdr:cNvPr id="23" name="ZoneTexte 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C19E0E-477A-EB4C-950F-2981DC17521F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDE4E2E-44C8-2344-A4A6-477F62650E64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,8 +3376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12642849" y="4847166"/>
-          <a:ext cx="2870200" cy="2471209"/>
+          <a:off x="12659177" y="1491190"/>
+          <a:ext cx="2889252" cy="2482096"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1272,6 +3416,22 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Questions autochtones</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1289,536 +3449,7 @@
                 </a:extLst>
               </a:hlinkClick>
             </a:rPr>
-            <a:t>EPH1001-A21-01 - Processus et situations de pluralité</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1800">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>24342</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>173568</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="2461682"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="ZoneTexte 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3138D8E5-5601-5645-9676-B5E429FC6F0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12660842" y="1110193"/>
-          <a:ext cx="2870200" cy="2461682"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
-                <a:extLst>
-                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
-                  </a:ext>
-                </a:extLst>
-              </a:hlinkClick>
-            </a:rPr>
-            <a:t>UOF1001-A21-02 - Introduction à la transdisciplinarité</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1800">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>17992</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>24343</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="2461682"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="ZoneTexte 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78635C2-8E9F-6D47-89FD-A0DBDA7F3DDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1097492" y="8596843"/>
-          <a:ext cx="2870200" cy="2461682"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
-                <a:extLst>
-                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
-                  </a:ext>
-                </a:extLst>
-              </a:hlinkClick>
-            </a:rPr>
-            <a:t>UOF1003-A21-01 - Développement plurilingue et interculturel 1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-CA" sz="1800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="fr-FR" sz="1800">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>11642</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2118</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="2461682"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="ZoneTexte 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDC70B1-6CB9-B84D-A94A-27E1429E283E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3980392" y="4859868"/>
-          <a:ext cx="2870200" cy="2461682"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
-                <a:extLst>
-                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
-                  </a:ext>
-                </a:extLst>
-              </a:hlinkClick>
-            </a:rPr>
-            <a:t>UOF1003-A21-02 - Développement plurilingue et interculturel 1</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1800">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2878667</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>202142</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1582207" cy="2464857"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="ZoneTexte 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937FF3B1-89B5-A94A-8C98-DC1419113A00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9736667" y="8981017"/>
-          <a:ext cx="1582207" cy="2464857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
-                <a:extLst>
-                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
-                  </a:ext>
-                </a:extLst>
-              </a:hlinkClick>
-            </a:rPr>
-            <a:t>EDU1101-A21-01 - Gestion des contextes d’apprentissage et apprentissage socioaffectif </a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2873375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>192618</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2905125" cy="2461682"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="ZoneTexte 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC97712-4B4E-1B45-A385-7C1B7D23C79B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9731375" y="1541993"/>
-          <a:ext cx="2905125" cy="2461682"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
-                <a:extLst>
-                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
-                  </a:ext>
-                </a:extLst>
-              </a:hlinkClick>
-            </a:rPr>
-            <a:t>EIS.PH1003-A21-01 - Changement social et développement</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1800">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27517</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>2118</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="2461682"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="ZoneTexte 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC955090-F124-8341-956D-7082976351F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3996267" y="8987368"/>
-          <a:ext cx="2870200" cy="2461682"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
-                <a:extLst>
-                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
-                  </a:ext>
-                </a:extLst>
-              </a:hlinkClick>
-            </a:rPr>
-            <a:t>EDU1001-A21-01 - Planification de l’apprentissage et évaluation : Français</a:t>
+            <a:t>EPH1005-H22-01</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -1831,13 +3462,78 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en-CA" sz="1800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SalleA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Présentiel</a:t>
+          </a:r>
           <a:endParaRPr lang="fr-FR" sz="1800">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2211,7 +3907,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2224,7 +3920,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
@@ -2235,7 +3931,7 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
@@ -2246,7 +3942,7 @@
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
@@ -2257,7 +3953,7 @@
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="21">
         <v>9</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -2270,7 +3966,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +3977,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
@@ -2292,7 +3988,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="13" t="s">
         <v>3</v>
       </c>
@@ -2303,7 +3999,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="21">
         <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2316,7 +4012,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
@@ -2327,7 +4023,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
@@ -2338,7 +4034,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="13" t="s">
         <v>3</v>
       </c>
@@ -2349,7 +4045,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+      <c r="A14" s="21">
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -2362,7 +4058,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="12" t="s">
         <v>1</v>
       </c>
@@ -2373,7 +4069,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="12" t="s">
         <v>2</v>
       </c>
@@ -2384,7 +4080,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="13" t="s">
         <v>3</v>
       </c>
@@ -2395,7 +4091,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+      <c r="A18" s="21">
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -2408,7 +4104,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="12" t="s">
         <v>1</v>
       </c>
@@ -2419,7 +4115,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="12" t="s">
         <v>2</v>
       </c>
@@ -2430,7 +4126,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="13" t="s">
         <v>3</v>
       </c>
@@ -2441,7 +4137,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+      <c r="A22" s="21">
         <v>13</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -2454,7 +4150,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="12" t="s">
         <v>1</v>
       </c>
@@ -2465,7 +4161,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="12" t="s">
         <v>2</v>
       </c>
@@ -2476,7 +4172,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="13" t="s">
         <v>3</v>
       </c>
@@ -2487,7 +4183,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
+      <c r="A26" s="21">
         <v>14</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -2500,7 +4196,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="12" t="s">
         <v>1</v>
       </c>
@@ -2511,7 +4207,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="12" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +4218,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="13" t="s">
         <v>3</v>
       </c>
@@ -2533,7 +4229,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
+      <c r="A30" s="21">
         <v>15</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -2546,7 +4242,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="12" t="s">
         <v>1</v>
       </c>
@@ -2557,7 +4253,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="12" t="s">
         <v>2</v>
       </c>
@@ -2568,7 +4264,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="13" t="s">
         <v>3</v>
       </c>
@@ -2579,20 +4275,20 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20">
+      <c r="A34" s="21">
         <v>16</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="12" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +4299,7 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="12" t="s">
         <v>2</v>
       </c>
@@ -2614,7 +4310,7 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="13" t="s">
         <v>3</v>
       </c>
@@ -2625,7 +4321,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20">
+      <c r="A38" s="21">
         <v>17</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -2638,7 +4334,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="12" t="s">
         <v>1</v>
       </c>
@@ -2649,7 +4345,7 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="12" t="s">
         <v>2</v>
       </c>
@@ -2660,7 +4356,7 @@
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="13" t="s">
         <v>3</v>
       </c>
@@ -2671,7 +4367,7 @@
       <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
+      <c r="A42" s="21">
         <v>18</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -2684,7 +4380,7 @@
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="12" t="s">
         <v>1</v>
       </c>
@@ -2695,7 +4391,7 @@
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="12" t="s">
         <v>2</v>
       </c>
@@ -2706,7 +4402,7 @@
       <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="13" t="s">
         <v>3</v>
       </c>
@@ -2717,7 +4413,7 @@
       <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20">
+      <c r="A46" s="21">
         <v>19</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -2730,7 +4426,7 @@
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="12" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +4437,7 @@
       <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="12" t="s">
         <v>2</v>
       </c>
@@ -2752,7 +4448,7 @@
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="13" t="s">
         <v>3</v>
       </c>
@@ -2763,7 +4459,7 @@
       <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20">
+      <c r="A50" s="21">
         <v>20</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -2776,7 +4472,7 @@
       <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="12" t="s">
         <v>1</v>
       </c>
@@ -2787,7 +4483,7 @@
       <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="12" t="s">
         <v>2</v>
       </c>
@@ -2798,7 +4494,7 @@
       <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="13" t="s">
         <v>3</v>
       </c>
